--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ainur Rofiq\Documents\github source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ainur Rofiq\Documents\github2\PraktikumML_146_180\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4C5157C-9FA3-4C84-9476-1EBD6B79FD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66800BFC-361D-43FF-ADCC-F80B2105E886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16605" yWindow="4305" windowWidth="13005" windowHeight="11295" xr2:uid="{009816C7-13C2-4F29-B6B7-EEEBF149CB6B}"/>
+    <workbookView xWindow="900" yWindow="210" windowWidth="21600" windowHeight="11295" xr2:uid="{009816C7-13C2-4F29-B6B7-EEEBF149CB6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
   <si>
     <t>Job Desc</t>
   </si>
@@ -78,14 +78,62 @@
     <t>Ainur</t>
   </si>
   <si>
-    <t>Undetermined</t>
+    <t>Tanggal Mulai</t>
+  </si>
+  <si>
+    <t>Tanggal Selesai</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>20 Oktober</t>
+  </si>
+  <si>
+    <t>27 Oktober</t>
+  </si>
+  <si>
+    <t>27 Otober</t>
+  </si>
+  <si>
+    <t>10 November</t>
+  </si>
+  <si>
+    <t>20 November</t>
+  </si>
+  <si>
+    <t>30 November</t>
+  </si>
+  <si>
+    <t>10 Desember</t>
+  </si>
+  <si>
+    <t>20 Desember</t>
+  </si>
+  <si>
+    <t>30 Desember</t>
+  </si>
+  <si>
+    <t>20 Januari</t>
+  </si>
+  <si>
+    <t>30 Januari</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Going</t>
+  </si>
+  <si>
+    <t>Waiting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,26 +141,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -127,9 +162,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,24 +482,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4927587F-0A36-4D8D-9033-BD132AC5C6E6}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -469,7 +508,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -477,7 +516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -485,7 +524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -493,7 +532,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -501,7 +540,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -509,7 +548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -517,7 +556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -525,7 +564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -533,7 +572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -541,89 +580,147 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="B14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ainur Rofiq\Documents\github2\PraktikumML_146_180\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rofiq\github\PraktikumML_146_180\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66800BFC-361D-43FF-ADCC-F80B2105E886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E9B41D-7E2C-4661-9FF4-15AD7EC9687D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="210" windowWidth="21600" windowHeight="11295" xr2:uid="{009816C7-13C2-4F29-B6B7-EEEBF149CB6B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{009816C7-13C2-4F29-B6B7-EEEBF149CB6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -485,7 +485,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,7 +636,7 @@
         <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -650,7 +650,7 @@
         <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rofiq\github\PraktikumML_146_180\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rofiq/Documents/GitHub/PraktikumML_146_180/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E9B41D-7E2C-4661-9FF4-15AD7EC9687D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98880D15-25D5-B94E-81F1-CFF699382D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{009816C7-13C2-4F29-B6B7-EEEBF149CB6B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="16440" xr2:uid="{009816C7-13C2-4F29-B6B7-EEEBF149CB6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
   <si>
     <t>Job Desc</t>
   </si>
@@ -121,12 +119,6 @@
   </si>
   <si>
     <t>Done</t>
-  </si>
-  <si>
-    <t>Going</t>
-  </si>
-  <si>
-    <t>Waiting</t>
   </si>
 </sst>
 </file>
@@ -485,22 +477,22 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -508,7 +500,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -516,7 +508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -524,7 +516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -532,7 +524,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -540,7 +532,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -548,7 +540,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -556,7 +548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -564,7 +556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -572,7 +564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -580,7 +572,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -594,10 +586,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -611,7 +603,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -622,10 +614,10 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -636,10 +628,10 @@
         <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -650,10 +642,10 @@
         <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -664,10 +656,10 @@
         <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -678,10 +670,10 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -692,10 +684,10 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -706,10 +698,10 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -720,7 +712,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
